--- a/CubeSatTeam.xlsx
+++ b/CubeSatTeam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\CubeSat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Charles Denis</t>
   </si>
@@ -105,13 +105,25 @@
   </si>
   <si>
     <t>651-308-3604</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>2015-16 AEM4331 CubeSat Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +135,31 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,9 +186,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -433,128 +487,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>